--- a/products/冲调饮品/茶叶/威士顿百果香味铁盒红茶.xlsx
+++ b/products/冲调饮品/茶叶/威士顿百果香味铁盒红茶.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t xml:space="preserve">品名</t>
   </si>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">类别</t>
   </si>
   <si>
-    <t xml:space="preserve">冲调饮品/茶叶/红茶</t>
+    <t xml:space="preserve">冲调饮品/茶/红茶</t>
   </si>
   <si>
     <t xml:space="preserve">酒精度</t>
@@ -173,18 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve">价格规格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">零售:125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">批发3-10:85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">批发11-50:80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">批发51-200:78</t>
   </si>
 </sst>
 </file>
@@ -334,17 +322,17 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1649484536082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.2422680412371"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.5876288659794"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.4587628865979"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.9484536082474"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.16494845360825"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.6134020618557"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.6752577319588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.0412371134021"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.8092783505155"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.4690721649485"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.37628865979382"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,34 +681,54 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
+    <row r="33" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>125</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
+    <row r="34" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>85</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
+    <row r="35" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>80</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
+    <row r="36" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -747,7 +755,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A36 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -773,7 +781,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A36 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
